--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,6 +453,42 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Encounter.extension:PertinenciaAtencionBox</t>
+  </si>
+  <si>
+    <t>PertinenciaAtencionBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionPertinenciaAtencionBox}
+</t>
+  </si>
+  <si>
+    <t>Pertinencia de la atención al ser evaluado por el profesional especialista</t>
+  </si>
+  <si>
+    <t>ExtBool Pertinencia Atencion Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Encounter.extension:MotivoNoPertinencia</t>
+  </si>
+  <si>
+    <t>MotivoNoPertinencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionMotivoNoPertinencia}
+</t>
+  </si>
+  <si>
+    <t>Indicar Motivo de la No Pertinecia en texto libre (PertinenciaAtencionBox = false)</t>
+  </si>
+  <si>
+    <t>Extensión que declara un porque de la no pertinencia</t>
+  </si>
+  <si>
     <t>Encounter.extension:ConsecuenciaAtencionCodigo</t>
   </si>
   <si>
@@ -467,42 +503,6 @@
   </si>
   <si>
     <t>Consecuencia Atención Codigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Encounter.extension:PertinenciaAtencionBox</t>
-  </si>
-  <si>
-    <t>PertinenciaAtencionBox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionPertinenciaAtencionBox}
-</t>
-  </si>
-  <si>
-    <t>Pertinencia de la atención al ser evaluado por el profesional especialista</t>
-  </si>
-  <si>
-    <t>ExtBool Pertinencia Atencion Box</t>
-  </si>
-  <si>
-    <t>Encounter.extension:MotivoNoPertinencia</t>
-  </si>
-  <si>
-    <t>MotivoNoPertinencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionMotivoNoPertinencia}
-</t>
-  </si>
-  <si>
-    <t>Indicar Motivo de la No Pertinecia en texto libre (PertinenciaAtencionBox = false)</t>
-  </si>
-  <si>
-    <t>Extensión que declara un porque de la no pertinencia</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>88</v>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>88</v>
@@ -8699,7 +8699,7 @@
         <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>89</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3211" uniqueCount="556">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/EncounterCL</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -295,10 +295,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -538,7 +538,7 @@
     <t>Id del registro de atención o encuentro del sistema clínico de origen</t>
   </si>
   <si>
-    <t>Identifier(s) by which this encounter is known.</t>
+    <t>Es el número de identificación del encuentro realizado</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -755,7 +755,7 @@
     <t>Estado actual del encuentro</t>
   </si>
   <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+    <t>Determina el estado del encuentro remoto conforme a los códigos definidos por el estándar</t>
   </si>
   <si>
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
@@ -764,10 +764,10 @@
     <t>finished</t>
   </si>
   <si>
-    <t>Current state of the encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
+    <t>Códigos requeridos por FHIR</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -827,6 +827,15 @@
     <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
   </si>
   <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+  </si>
+  <si>
+    <t>Current state of the encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
+  </si>
+  <si>
     <t>Encounter.statusHistory.period</t>
   </si>
   <si>
@@ -846,7 +855,7 @@
     <t>Modalidad de Atención</t>
   </si>
   <si>
-    <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
+    <t>Clasificación del encuentro con el paciente</t>
   </si>
   <si>
     <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSModalidadAtencionCodigo</t>
@@ -909,7 +918,7 @@
     <t>Tipo de consulta</t>
   </si>
   <si>
-    <t>Specific type of encounter (e.g. e-mail consultation, surgical day-care, skilled nursing, rehabilitation).</t>
+    <t>Específica el tipo de encuentro</t>
   </si>
   <si>
     <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
@@ -930,19 +939,16 @@
     <t>Encounter.serviceType</t>
   </si>
   <si>
-    <t>Specific type of service</t>
-  </si>
-  <si>
-    <t>Broad categorization of the service that is to be provided (e.g. cardiology).</t>
+    <t>Tipo de servicio que se realiza en el Encuentro</t>
+  </si>
+  <si>
+    <t>Categorización del servicio que se va a prestar en el encuentro (por ejemplo, servicio de Ginecología)</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>Broad categorization of the service that is to be provided.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSTiposServicio</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -983,7 +989,7 @@
     <t>Referencia al paciente que fue atendido en APS</t>
   </si>
   <si>
-    <t>The patient or group present at the encounter.</t>
+    <t>La referencia al paciente que está presente en el encuentro clínico sobre un paciente nacional.</t>
   </si>
   <si>
     <t>While the encounter is always about the patient, the patient might not actually be known in all contexts of use, and there may be a group of patients that could be anonymous (such as in a group therapy for Alcoholics Anonymous - where the recording of the encounter could be used for billing on the number of people/staff and not important to the context of the specific patients) or alternately in veterinary care a herd of sheep receiving treatment (where the animals are not individually tracked).</t>
@@ -1049,7 +1055,7 @@
     <t>Encounter.participant</t>
   </si>
   <si>
-    <t>List of participants involved in the encounter</t>
+    <t>Participantes involucrados en el encuentro sin considerar al paciente</t>
   </si>
   <si>
     <t>The list of people responsible for providing the service.</t>
@@ -1076,7 +1082,7 @@
     <t>Encounter.participant.type</t>
   </si>
   <si>
-    <t>Role of participant in encounter</t>
+    <t>Rol del participante en el encuentro</t>
   </si>
   <si>
     <t>Role of participant in encounter.</t>
@@ -1119,7 +1125,7 @@
 </t>
   </si>
   <si>
-    <t>Persons involved in the encounter other than the patient</t>
+    <t>Referencia al participante</t>
   </si>
   <si>
     <t>Persons involved in the encounter other than the patient.</t>
@@ -1144,10 +1150,10 @@
 </t>
   </si>
   <si>
-    <t>The appointment that scheduled this encounter</t>
-  </si>
-  <si>
-    <t>The appointment that scheduled this encounter.</t>
+    <t>Reserva de un evento de atención médica entre paciente(s), profesional(es), persona(s) relacionada(s) y/o dispositivo(s)</t>
+  </si>
+  <si>
+    <t>Cita o agendamiento médico, la cual es resultado de un encuentro</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target[classCode=ENC, moodCode=APT]</t>
@@ -1162,7 +1168,7 @@
     <t>Fechas de comienzo y término del encuentro atención de especialidad. El formato queda consignado como YYYY-MM-DDTHH:MMZ</t>
   </si>
   <si>
-    <t>The start and end time of the encounter.</t>
+    <t>La hora de inicio y finalización del encuentro</t>
   </si>
   <si>
     <t>If not (yet) known, the end of the Period may be omitted.</t>
@@ -1246,10 +1252,7 @@
 </t>
   </si>
   <si>
-    <t>Quantity of time the encounter lasted (less time absent)</t>
-  </si>
-  <si>
-    <t>Quantity of time the encounter lasted. This excludes the time during leaves of absence.</t>
+    <t>Cantidad de tiempo que duró el encuentro (menos tiempo ausente)</t>
   </si>
   <si>
     <t>May differ from the time the Encounter.period lasted because of leave of absence.</t>
@@ -1268,10 +1271,7 @@
 Admission diagnosis</t>
   </si>
   <si>
-    <t>Coded reason the encounter takes place</t>
-  </si>
-  <si>
-    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.</t>
+    <t>Razón codificada por la que tiene lugar el Encuentro</t>
   </si>
   <si>
     <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
@@ -1305,13 +1305,16 @@
     <t>Reason the encounter takes place (reference)</t>
   </si>
   <si>
+    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.</t>
+  </si>
+  <si>
     <t>Encounter.diagnosis</t>
   </si>
   <si>
     <t>Lista de diagnósticos relevantes a este encuentro médico</t>
   </si>
   <si>
-    <t>The list of diagnosis relevant to this encounter.</t>
+    <t>Diagnóstico relevante para este encuentro</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON]</t>
@@ -1698,7 +1701,11 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t>The organization (facility) responsible for this encounter</t>
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl)
+</t>
+  </si>
+  <si>
+    <t>La organización (instalación) responsable de este encuentro</t>
   </si>
   <si>
     <t>The organization that is primarily responsible for this Encounter's services. This MAY be the same as the organization on the Patient record, however it could be different, such as if the actor performing the services was from an external organization (which may be billed seperately) for an external consultation.  Refer to the example bundle showing an abbreviated set of Encounters for a colonoscopy.</t>
@@ -2348,13 +2355,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>80</v>
@@ -5215,7 +5222,7 @@
         <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5245,10 +5252,10 @@
         <v>187</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5295,10 +5302,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5324,10 +5331,10 @@
         <v>221</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5378,7 +5385,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>88</v>
@@ -5407,10 +5414,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5424,7 +5431,7 @@
         <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
@@ -5433,13 +5440,13 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5470,7 +5477,7 @@
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5488,7 +5495,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>88</v>
@@ -5506,21 +5513,21 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5546,10 +5553,10 @@
         <v>247</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5600,7 +5607,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5629,10 +5636,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5741,10 +5748,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5855,10 +5862,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5971,10 +5978,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5997,13 +6004,13 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6033,28 +6040,28 @@
         <v>198</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>88</v>
@@ -6083,10 +6090,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6112,10 +6119,10 @@
         <v>221</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6166,7 +6173,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>88</v>
@@ -6195,10 +6202,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6224,13 +6231,13 @@
         <v>193</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6260,7 +6267,7 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6278,7 +6285,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6293,24 +6300,24 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6324,7 +6331,7 @@
         <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>80</v>
@@ -6336,10 +6343,10 @@
         <v>193</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6366,31 +6373,29 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Y38" s="2"/>
+      <c r="Z38" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6405,7 +6410,7 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>176</v>
@@ -6414,15 +6419,15 @@
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6448,10 +6453,10 @@
         <v>193</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6478,31 +6483,31 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6520,25 +6525,25 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6557,16 +6562,16 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6616,7 +6621,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6631,24 +6636,24 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6671,13 +6676,13 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6728,7 +6733,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6743,28 +6748,28 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6783,13 +6788,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6840,7 +6845,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6855,10 +6860,10 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6869,10 +6874,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6886,7 +6891,7 @@
         <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>80</v>
@@ -6898,10 +6903,10 @@
         <v>247</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6952,7 +6957,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6967,24 +6972,24 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7093,10 +7098,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7207,10 +7212,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7323,10 +7328,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7340,7 +7345,7 @@
         <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>80</v>
@@ -7352,13 +7357,13 @@
         <v>193</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7384,31 +7389,29 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="Y47" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y47" s="2"/>
+      <c r="Z47" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7423,24 +7426,24 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7466,10 +7469,10 @@
         <v>221</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7520,7 +7523,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7538,21 +7541,21 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7560,13 +7563,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>80</v>
@@ -7575,13 +7578,13 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7632,7 +7635,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7647,24 +7650,24 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7675,10 +7678,10 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>
@@ -7687,13 +7690,13 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7744,7 +7747,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7759,24 +7762,24 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7802,13 +7805,13 @@
         <v>221</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7858,7 +7861,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7873,24 +7876,24 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7999,10 +8002,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8113,10 +8116,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8139,16 +8142,16 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8198,7 +8201,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8207,7 +8210,7 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
@@ -8216,21 +8219,21 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8253,23 +8256,23 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q55" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>80</v>
@@ -8314,7 +8317,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8323,7 +8326,7 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
@@ -8332,21 +8335,21 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8360,7 +8363,7 @@
         <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -8369,16 +8372,16 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8428,7 +8431,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8443,28 +8446,28 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8474,7 +8477,7 @@
         <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>80</v>
@@ -8486,7 +8489,7 @@
         <v>193</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>404</v>
@@ -8542,7 +8545,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8578,7 +8581,7 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8603,7 +8606,7 @@
         <v>414</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>405</v>
@@ -8685,10 +8688,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8714,10 +8717,10 @@
         <v>247</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8768,7 +8771,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8786,7 +8789,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8797,10 +8800,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8909,10 +8912,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9023,10 +9026,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9139,14 +9142,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9165,13 +9168,13 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>405</v>
@@ -9224,7 +9227,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>88</v>
@@ -9239,24 +9242,24 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>410</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9282,10 +9285,10 @@
         <v>193</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9315,10 +9318,10 @@
         <v>112</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9336,7 +9339,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9365,10 +9368,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9391,13 +9394,13 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9448,7 +9451,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9466,7 +9469,7 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9477,10 +9480,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9503,16 +9506,16 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9562,7 +9565,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9580,7 +9583,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9591,10 +9594,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9620,13 +9623,13 @@
         <v>247</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9676,7 +9679,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9694,7 +9697,7 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9705,10 +9708,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9817,10 +9820,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9931,10 +9934,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10047,10 +10050,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10076,10 +10079,10 @@
         <v>164</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10130,7 +10133,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10154,15 +10157,15 @@
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10185,13 +10188,13 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10242,7 +10245,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10260,7 +10263,7 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10271,10 +10274,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10300,10 +10303,10 @@
         <v>193</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10333,10 +10336,10 @@
         <v>112</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -10354,7 +10357,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10372,21 +10375,21 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10412,10 +10415,10 @@
         <v>193</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10442,13 +10445,13 @@
         <v>80</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>80</v>
@@ -10466,7 +10469,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10490,15 +10493,15 @@
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10524,16 +10527,16 @@
         <v>193</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -10558,13 +10561,13 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -10582,7 +10585,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10600,21 +10603,21 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10640,10 +10643,10 @@
         <v>193</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10673,10 +10676,10 @@
         <v>112</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
@@ -10694,7 +10697,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10712,21 +10715,21 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10752,10 +10755,10 @@
         <v>193</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10785,10 +10788,10 @@
         <v>112</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -10806,7 +10809,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10824,21 +10827,21 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10861,13 +10864,13 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10918,7 +10921,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10936,21 +10939,21 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10976,10 +10979,10 @@
         <v>193</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11006,13 +11009,13 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>80</v>
@@ -11030,7 +11033,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11048,21 +11051,21 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11088,13 +11091,13 @@
         <v>247</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11144,7 +11147,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11162,7 +11165,7 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11173,10 +11176,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11285,10 +11288,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11399,10 +11402,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11515,10 +11518,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11541,13 +11544,13 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11598,7 +11601,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>88</v>
@@ -11613,24 +11616,24 @@
         <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11656,13 +11659,13 @@
         <v>108</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11691,10 +11694,10 @@
         <v>187</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>80</v>
@@ -11712,7 +11715,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11730,7 +11733,7 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
@@ -11741,10 +11744,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11770,13 +11773,13 @@
         <v>193</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11802,13 +11805,13 @@
         <v>80</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>80</v>
@@ -11826,7 +11829,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11855,10 +11858,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11884,10 +11887,10 @@
         <v>221</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11938,7 +11941,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11956,7 +11959,7 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -11967,10 +11970,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11984,7 +11987,7 @@
         <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>80</v>
@@ -11993,13 +11996,13 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>228</v>
+        <v>544</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12050,7 +12053,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12065,24 +12068,24 @@
         <v>100</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12105,16 +12108,16 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12164,7 +12167,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12179,10 +12182,10 @@
         <v>100</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7389,7 +7389,7 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">

--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -642,7 +642,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -727,7 +727,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -2067,17 +2067,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.25" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.44140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.0859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2086,26 +2086,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="76.9140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.13671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.34765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="187.49609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="89.40625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="165.8046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
